--- a/data/trans_bre/Q45B_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.078068951962202</v>
+        <v>1.887436399032409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8046713796483973</v>
+        <v>0.9635213434436247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5525836656956762</v>
+        <v>0.5220601428752375</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.6667550192615495</v>
+        <v>0.4652944772997835</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1865397601533868</v>
+        <v>0.2197730598998117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3464788966108767</v>
+        <v>0.3646634235118059</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.658275322732975</v>
+        <v>5.637922352093645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.366677461850998</v>
+        <v>4.496596256346097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.548808413404181</v>
+        <v>2.594573618145603</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6.609930174065588</v>
+        <v>6.429880094788849</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.738170465228146</v>
+        <v>1.865703949193533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.721086687495141</v>
+        <v>4.650186762237968</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.69287939468258</v>
+        <v>3.625061282462921</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.478338287557609</v>
+        <v>3.506867711955509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9312511956370476</v>
+        <v>1.047081666813724</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.443245842322691</v>
+        <v>1.50791761429633</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.3894287578542</v>
+        <v>1.329640664658408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.448328636143611</v>
+        <v>0.5932281150475781</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.149746124241537</v>
+        <v>7.268256409203536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.021805884064985</v>
+        <v>7.026618223740486</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.617658315084085</v>
+        <v>3.721688631081725</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.034594974777961</v>
+        <v>5.675115873804688</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.816637429815798</v>
+        <v>5.690253130459252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.893824477006615</v>
+        <v>6.864249467435233</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.128047351928163</v>
+        <v>4.217632793183013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.009846360747663</v>
+        <v>5.053642717408933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.872582677551891</v>
+        <v>2.824598752038197</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.513791983451887</v>
+        <v>1.380675088695456</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.734703934672372</v>
+        <v>1.609122304797673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.965710777727375</v>
+        <v>1.99397949425632</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.059299537642243</v>
+        <v>8.251386916101952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.434507082429583</v>
+        <v>9.504247002668889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.138897392421459</v>
+        <v>5.980643190913669</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.648696471666144</v>
+        <v>5.3065456741777</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.685872108279277</v>
+        <v>7.937798631589287</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>18.38943387576391</v>
+        <v>16.48321166346576</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.750998205885903</v>
+        <v>8.375773993640287</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.77518382804294</v>
+        <v>2.838257778916339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.39167625077203</v>
+        <v>1.417862236235834</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.717226593570296</v>
+        <v>1.735220312825535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4102184804663593</v>
+        <v>0.4516330724167151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5262743789323578</v>
+        <v>0.5657298721341808</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.3099675208646</v>
+        <v>16.4768899021937</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.447046706245859</v>
+        <v>9.652338646047486</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.547077052864732</v>
+        <v>5.560120104607493</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8.994616912986135</v>
+        <v>8.628195816897708</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.049647455097325</v>
+        <v>4.419550104851814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.046584786928692</v>
+        <v>8.358582984887668</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.779963461913733</v>
+        <v>4.757986847768939</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.68969228241724</v>
+        <v>3.945546245906698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.917778773266583</v>
+        <v>1.90521625578406</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.936790279379552</v>
+        <v>1.855938763121477</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.220442185693327</v>
+        <v>1.358877308701118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.57091007367063</v>
+        <v>1.498928346569281</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.976587556248</v>
+        <v>6.868491752913266</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.951340330630769</v>
+        <v>6.066499684245396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.269079503171241</v>
+        <v>3.290787975525591</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4.164740054285932</v>
+        <v>4.007891930675046</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.840809504972977</v>
+        <v>2.869054254096386</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.581579807883294</v>
+        <v>4.414823583669323</v>
       </c>
     </row>
     <row r="19">
